--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t xml:space="preserve">VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -149,26 +149,37 @@
     <t xml:space="preserve">Informaţiile vor fi preluate din fişiere text.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
+    <t xml:space="preserve">Aplicatia gestioneaza task-urile unei persoane active. Informatiile sunt preluate dintr-un fisier binar sau text. Functionalitatile aplicatiei sunt:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F01. Adaugarea unui task nou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se deschide aplicatia, se apasa pe butonul “New” si astfel se deschide o fereastra cu campurile necesare proprietatilor unui task:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -  Descrierea: tip text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -  Data de start: tip data (+ Date Picker), valoarea implicita la deschiderea ecranului este ziua curenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -  Ora de start: tip ora, obligatoriu, valoarea implicita la deschiderea ecranului este “8:00”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taskul poate fi repetitiv: (checkbox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -  Data de sfarsit: tip data (+ Date Picker), trebuie sa fie dupa data de start,  campul este dezactivat pana se selecteaza daca taskul este repetitiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -  Ora de sfarsit: tip ora, campul este dezactivat pana se selecteaza daca taskul este repetitiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -  Interval: tip ora (reprezentand intervalul de timp la care se va repeta taskul curent) , campul este dezactivat pana se selecteaza daca taskul este repetitiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taskul poate fi activ: (checkbox) Faptul ca un task este activ reprezinta ca inca este valabil pentru utilizator.</t>
   </si>
   <si>
     <t>Observații</t>
@@ -177,7 +188,7 @@
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
   </si>
   <si>
-    <t xml:space="preserve">addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
+    <t xml:space="preserve">add(String titlu, Date dataStart, Date dataStop, Time Interval): void</t>
   </si>
   <si>
     <t xml:space="preserve">2. Metoda este definită la nivelul repository, service sau ui.</t>
@@ -412,6 +423,22 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>F01.</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">BVA Condition</t>
   </si>
   <si>
@@ -524,6 +551,9 @@
   </si>
   <si>
     <t>TC2_ECP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no exception thrown</t>
   </si>
   <si>
     <t>TC3_ECP</t>
@@ -753,15 +783,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
-      <color theme="1" tint="0"/>
-      <name val="Courier New"/>
-    </font>
-    <font>
       <sz val="10.000000"/>
       <color theme="1" tint="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="1" tint="0"/>
+      <name val="Courier New"/>
     </font>
     <font>
       <sz val="11.000000"/>
@@ -1627,7 +1657,7 @@
     <xf fontId="17" fillId="0" borderId="9" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="18" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="109">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="17" fillId="33" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1646,14 +1676,14 @@
     <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="17" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1834,8 +1864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="24" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="24" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="24" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1853,8 +1881,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="18" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="17" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1983,7 +2009,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Author" id="{BA2484EE-1A5E-DDDA-43D2-8866A2B44BEE}"/>
+  <person displayName="Author" id="{8A6B1779-F093-3ADA-FF5F-F7A3843068C7}"/>
 </personList>
 </file>
 
@@ -2481,7 +2507,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D16" personId="{BA2484EE-1A5E-DDDA-43D2-8866A2B44BEE}" id="{003D0004-003F-451F-93FF-000B007F00D8}" done="0">
+  <threadedComment ref="D16" personId="{8A6B1779-F093-3ADA-FF5F-F7A3843068C7}" id="{003D0004-003F-451F-93FF-000B007F00D8}" done="0">
     <text xml:space="preserve">max = 
 Current Year
 </text>
@@ -2491,11 +2517,11 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M18" personId="{BA2484EE-1A5E-DDDA-43D2-8866A2B44BEE}" id="{00260095-004F-4D2A-94C2-00FA00FC005B}" done="0">
+  <threadedComment ref="M18" personId="{8A6B1779-F093-3ADA-FF5F-F7A3843068C7}" id="{00260095-004F-4D2A-94C2-00FA00FC005B}" done="0">
     <text xml:space="preserve">fill with DONE or n/a after regression testing
 </text>
   </threadedComment>
-  <threadedComment ref="H18" personId="{BA2484EE-1A5E-DDDA-43D2-8866A2B44BEE}" id="{006700F4-0044-4FBE-8DF1-002B001A007B}" done="0">
+  <threadedComment ref="H18" personId="{8A6B1779-F093-3ADA-FF5F-F7A3843068C7}" id="{006700F4-0044-4FBE-8DF1-002B001A007B}" done="0">
     <text xml:space="preserve">fill with DONE or n/a after re-testing
 </text>
   </threadedComment>
@@ -2614,120 +2640,158 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" ht="15">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" ht="15">
-      <c r="B14" t="s">
-        <v>15</v>
+      <c r="A14" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" ht="15">
-      <c r="B15" t="s">
-        <v>16</v>
+      <c r="A15" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" ht="15">
-      <c r="B16" t="s">
-        <v>17</v>
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" ht="15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
       <c r="B17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" ht="15">
-      <c r="B18" s="8" t="s">
-        <v>18</v>
+      <c r="A18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="15">
-      <c r="B19" s="9" t="s">
-        <v>19</v>
+      <c r="A19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="15">
-      <c r="C20" s="10" t="s">
-        <v>20</v>
+      <c r="A20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="15">
-      <c r="B21" s="9" t="s">
-        <v>21</v>
+      <c r="A21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="15">
-      <c r="B22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
       <c r="O22" s="9"/>
     </row>
     <row r="23" ht="15">
-      <c r="B23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
       <c r="O23" s="9"/>
     </row>
     <row r="24" ht="14.449999999999999" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="26" ht="15">
-      <c r="C26" s="13"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="B27" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="B28" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="C29" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="B30" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="B31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="B32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="B33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B33:N33"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2775,7 +2839,7 @@
     </row>
     <row r="3" ht="15">
       <c r="B3" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -2785,13 +2849,13 @@
     </row>
     <row r="5" ht="15">
       <c r="B5" s="18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="G5" s="19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -2806,25 +2870,25 @@
     </row>
     <row r="6" ht="15">
       <c r="B6" s="20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -2833,7 +2897,7 @@
       <c r="N6" s="24"/>
       <c r="O6" s="25"/>
       <c r="P6" s="20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="20"/>
     </row>
@@ -2842,35 +2906,35 @@
         <v>1</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E7" s="26"/>
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
       <c r="I7" s="20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="25"/>
     </row>
@@ -2881,22 +2945,22 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G8" s="20">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L8" s="6">
         <v>30</v>
@@ -2905,13 +2969,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="32"/>
     </row>
@@ -2922,22 +2986,22 @@
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G9" s="20">
         <v>2</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L9" s="6">
         <v>30</v>
@@ -2946,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="30"/>
     </row>
@@ -2961,26 +3025,26 @@
         <v>4</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E10" s="26"/>
       <c r="G10" s="20">
         <v>3</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L10" s="6">
         <v>30</v>
@@ -2989,13 +3053,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="30"/>
     </row>
@@ -3006,22 +3070,22 @@
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G11" s="33">
         <v>4</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L11" s="6">
         <v>30</v>
@@ -3030,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O11" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="Q11" s="30"/>
     </row>
@@ -3045,10 +3109,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E12" s="26"/>
       <c r="G12" s="35"/>
@@ -3070,7 +3134,7 @@
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="40"/>
@@ -3227,7 +3291,7 @@
     </row>
     <row r="23" ht="15">
       <c r="D23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
@@ -3335,7 +3399,7 @@
     </row>
     <row r="3" ht="15">
       <c r="B3" s="15" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -3345,13 +3409,13 @@
     </row>
     <row r="5" ht="15">
       <c r="B5" s="50" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
       <c r="E5" s="51"/>
       <c r="G5" s="19" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -3367,29 +3431,29 @@
     </row>
     <row r="6" ht="14.449999999999999" customHeight="1">
       <c r="B6" s="26" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E6" s="52"/>
       <c r="G6" s="21" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
@@ -3397,7 +3461,7 @@
       <c r="O6" s="54"/>
       <c r="P6" s="55"/>
       <c r="Q6" s="53" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R6" s="55"/>
     </row>
@@ -3406,10 +3470,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="27"/>
@@ -3417,25 +3481,25 @@
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
       <c r="K7" s="20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N7" s="57" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="R7" s="25"/>
     </row>
@@ -3443,7 +3507,7 @@
       <c r="B8" s="58"/>
       <c r="C8" s="59"/>
       <c r="D8" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E8" s="14"/>
       <c r="G8" s="20">
@@ -3454,16 +3518,16 @@
       </c>
       <c r="I8" s="61"/>
       <c r="J8" s="61" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N8" s="34">
         <v>30</v>
@@ -3472,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R8" s="32"/>
     </row>
@@ -3483,7 +3547,7 @@
       <c r="B9" s="58"/>
       <c r="C9" s="59"/>
       <c r="D9" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E9" s="14"/>
       <c r="G9" s="33">
@@ -3494,16 +3558,16 @@
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="61" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N9" s="34">
         <v>30</v>
@@ -3512,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="R9" s="30"/>
     </row>
@@ -3523,7 +3587,7 @@
       <c r="B10" s="58"/>
       <c r="C10" s="59"/>
       <c r="D10" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E10" s="14"/>
       <c r="G10" s="20">
@@ -3534,16 +3598,16 @@
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="61" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K10" s="62" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N10" s="34">
         <v>30</v>
@@ -3552,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R10" s="32"/>
     </row>
@@ -3563,7 +3627,7 @@
       <c r="B11" s="58"/>
       <c r="C11" s="59"/>
       <c r="D11" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E11" s="14"/>
       <c r="G11" s="20">
@@ -3574,16 +3638,16 @@
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="61" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="N11" s="34">
         <v>30</v>
@@ -3592,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="R11" s="30"/>
     </row>
@@ -3603,7 +3667,7 @@
       <c r="B12" s="44"/>
       <c r="C12" s="63"/>
       <c r="D12" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E12" s="14"/>
       <c r="G12" s="20">
@@ -3626,10 +3690,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E13" s="14"/>
       <c r="G13" s="20">
@@ -3651,7 +3715,7 @@
       <c r="B14" s="58"/>
       <c r="C14" s="59"/>
       <c r="D14" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E14" s="14"/>
       <c r="G14" s="20">
@@ -3673,7 +3737,7 @@
       <c r="B15" s="58"/>
       <c r="C15" s="59"/>
       <c r="D15" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E15" s="14"/>
       <c r="G15" s="20">
@@ -3695,7 +3759,7 @@
       <c r="B16" s="58"/>
       <c r="C16" s="59"/>
       <c r="D16" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E16" s="14"/>
       <c r="G16" s="20">
@@ -3717,7 +3781,7 @@
       <c r="B17" s="58"/>
       <c r="C17" s="59"/>
       <c r="D17" s="6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E17" s="14"/>
       <c r="G17" s="20">
@@ -3739,7 +3803,7 @@
       <c r="B18" s="44"/>
       <c r="C18" s="63"/>
       <c r="D18" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E18" s="14"/>
       <c r="G18" s="20">
@@ -3762,10 +3826,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E19" s="14"/>
       <c r="G19" s="20">
@@ -3787,7 +3851,7 @@
       <c r="B20" s="58"/>
       <c r="C20" s="59"/>
       <c r="D20" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="14"/>
@@ -3808,7 +3872,7 @@
       <c r="B21" s="58"/>
       <c r="C21" s="59"/>
       <c r="D21" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E21" s="14"/>
       <c r="G21" s="14"/>
@@ -3829,7 +3893,7 @@
       <c r="B22" s="58"/>
       <c r="C22" s="59"/>
       <c r="D22" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E22" s="14"/>
       <c r="G22" s="49"/>
@@ -3850,7 +3914,7 @@
       <c r="B23" s="58"/>
       <c r="C23" s="59"/>
       <c r="D23" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E23" s="14"/>
       <c r="G23" s="14"/>
@@ -3871,7 +3935,7 @@
       <c r="B24" s="44"/>
       <c r="C24" s="63"/>
       <c r="D24" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E24" s="14"/>
       <c r="G24" s="14"/>
@@ -3968,7 +4032,7 @@
     </row>
     <row r="3" ht="15">
       <c r="B3" s="66" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -3985,19 +4049,19 @@
     </row>
     <row r="4" ht="15">
       <c r="B4" s="21" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
@@ -4006,7 +4070,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="25"/>
       <c r="M4" s="20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N4" s="20"/>
     </row>
@@ -4016,28 +4080,28 @@
       <c r="D5" s="71"/>
       <c r="E5" s="72"/>
       <c r="F5" s="22" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K5" s="73" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" ht="15.75">
@@ -4045,20 +4109,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E6" s="76"/>
       <c r="F6" s="77" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G6" s="77" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I6" s="77">
         <v>30</v>
@@ -4066,11 +4130,14 @@
       <c r="J6" s="77">
         <v>0</v>
       </c>
-      <c r="K6" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="79" t="s">
-        <v>51</v>
+      <c r="K6" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="78" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="15">
@@ -4080,17 +4147,17 @@
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="24" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E7" s="76"/>
       <c r="F7" s="77" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G7" s="77" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H7" s="77" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I7" s="77">
         <v>30</v>
@@ -4098,31 +4165,34 @@
       <c r="J7" s="77">
         <v>0</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="78" t="s">
-        <v>56</v>
+      <c r="K7" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="B8" s="20">
         <f t="shared" ref="B8:B13" si="0">B65543+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="24" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="77" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G8" s="77" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I8" s="77">
         <v>30</v>
@@ -4130,31 +4200,34 @@
       <c r="J8" s="77">
         <v>0</v>
       </c>
-      <c r="K8" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="78" t="s">
-        <v>56</v>
+      <c r="K8" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="15">
       <c r="B9" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="24" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E9" s="77"/>
-      <c r="F9" s="78" t="s">
-        <v>46</v>
+      <c r="F9" s="77" t="s">
+        <v>54</v>
       </c>
       <c r="G9" s="77" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I9" s="77">
         <v>30</v>
@@ -4162,304 +4235,319 @@
       <c r="J9" s="77">
         <v>0</v>
       </c>
-      <c r="K9" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="78" t="s">
-        <v>56</v>
+      <c r="K9" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="74"/>
       <c r="D10" s="24"/>
       <c r="E10" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="80" t="s">
-        <v>80</v>
+        <v>118</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>89</v>
       </c>
       <c r="G10" s="77" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="80">
+        <v>56</v>
+      </c>
+      <c r="I10" s="78">
         <v>30</v>
       </c>
-      <c r="J10" s="80">
+      <c r="J10" s="78">
         <v>0</v>
       </c>
-      <c r="K10" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="79" t="s">
-        <v>51</v>
+      <c r="K10" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="78" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="B11" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="24"/>
       <c r="E11" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="81" t="s">
-        <v>54</v>
+        <v>119</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>62</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="80">
+        <v>56</v>
+      </c>
+      <c r="I11" s="78">
         <v>30</v>
       </c>
-      <c r="J11" s="80">
+      <c r="J11" s="78">
         <v>0</v>
       </c>
-      <c r="K11" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="78" t="s">
-        <v>56</v>
+      <c r="K11" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" ht="15">
       <c r="B12" s="20">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" s="74"/>
       <c r="D12" s="24"/>
       <c r="E12" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="80">
+        <v>119</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="78">
         <v>30</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="78">
         <v>0</v>
       </c>
-      <c r="K12" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="79" t="s">
-        <v>51</v>
+      <c r="K12" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="78" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="15.75">
-      <c r="B13" s="82">
+      <c r="B13" s="80">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="79">
+        <v>120</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="78">
         <v>30</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="78">
         <v>0</v>
       </c>
-      <c r="K13" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="78" t="s">
-        <v>56</v>
+      <c r="K13" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" ht="15.75">
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="85"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="83"/>
     </row>
     <row r="15" ht="14.449999999999999" customHeight="1">
-      <c r="B15" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
+      <c r="B15" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" ht="15.75">
       <c r="L16" s="14"/>
-      <c r="M16" s="89"/>
+      <c r="M16" s="85"/>
     </row>
     <row r="17" ht="15.75">
-      <c r="C17" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="94"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17" s="94"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="92"/>
+      <c r="C17" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="90"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="90"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
     </row>
     <row r="18" ht="14.449999999999999" customHeight="1">
-      <c r="B18" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>116</v>
+      <c r="B18" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>126</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" s="100"/>
+        <v>128</v>
+      </c>
+      <c r="F18" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="96"/>
       <c r="J18" s="57" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="M18" s="101" t="s">
-        <v>121</v>
+        <v>127</v>
+      </c>
+      <c r="L18" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" s="97" t="s">
+        <v>131</v>
       </c>
       <c r="N18" s="57" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O18" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="P18" s="97" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="P18" s="93" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" ht="15">
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="103"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="104"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="100"/>
       <c r="N19" s="57"/>
       <c r="O19" s="57"/>
-      <c r="P19" s="97"/>
+      <c r="P19" s="93"/>
     </row>
     <row r="20" ht="15">
-      <c r="B20" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="106">
+      <c r="B20" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="102">
         <v>8</v>
       </c>
-      <c r="D20" s="107">
+      <c r="D20" s="103">
         <v>3</v>
       </c>
-      <c r="E20" s="107">
+      <c r="E20" s="103">
         <v>5</v>
       </c>
-      <c r="F20" s="108">
+      <c r="F20" s="104">
         <v>2</v>
       </c>
-      <c r="G20" s="109">
+      <c r="G20" s="105">
         <v>2</v>
       </c>
-      <c r="H20" s="110" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="111"/>
+      <c r="H20" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="107"/>
       <c r="J20" s="6">
         <v>5</v>
       </c>
-      <c r="K20" s="107">
+      <c r="K20" s="103">
         <v>5</v>
       </c>
-      <c r="L20" s="108">
+      <c r="L20" s="104">
         <v>0</v>
       </c>
-      <c r="M20" s="112" t="s">
-        <v>79</v>
+      <c r="M20" s="108" t="s">
+        <v>88</v>
       </c>
       <c r="N20" s="6">
         <v>3</v>
       </c>
-      <c r="O20" s="107">
+      <c r="O20" s="103">
         <v>3</v>
       </c>
-      <c r="P20" s="108">
+      <c r="P20" s="104">
         <v>0</v>
       </c>
     </row>
